--- a/Sample_Bank_Data/JUN 2023.xlsx
+++ b/Sample_Bank_Data/JUN 2023.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28906"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\OneDrive_2025-04-23\Sample Bank Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{073FEE24-AC57-4ABC-B3B2-39B039108554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B2687C6-028F-40DD-A7FD-3124D7719479}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{073FEE24-AC57-4ABC-B3B2-39B039108554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E05B409-4297-40A0-93D1-5F2C7B7B30FB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="12" r:id="rId1"/>
     <sheet name="CUSTOMER" sheetId="6" r:id="rId2"/>
     <sheet name="fact risk" sheetId="1" r:id="rId3"/>
-    <sheet name="Fact writeen-off" sheetId="8" r:id="rId4"/>
-    <sheet name="fact restructred" sheetId="10" r:id="rId5"/>
-    <sheet name="rating" sheetId="5" r:id="rId6"/>
-    <sheet name="Rating and PDS&amp;P_x0009_Moody's_x0009_Fitch_x0009_" sheetId="11" r:id="rId7"/>
-    <sheet name="Risk Limit" sheetId="13" r:id="rId8"/>
-    <sheet name="STAGING" sheetId="7" r:id="rId9"/>
+    <sheet name="Provision" sheetId="14" r:id="rId4"/>
+    <sheet name="Fact writeen-off" sheetId="8" r:id="rId5"/>
+    <sheet name="fact restructred" sheetId="10" r:id="rId6"/>
+    <sheet name="rating" sheetId="5" r:id="rId7"/>
+    <sheet name="Rating and PDS&amp;P_x0009_Moody's_x0009_Fitch_x0009_" sheetId="11" r:id="rId8"/>
+    <sheet name="PD" sheetId="15" r:id="rId9"/>
+    <sheet name="Risk Limit" sheetId="13" r:id="rId10"/>
+    <sheet name="STAGING" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'fact risk'!$B$1:$AD$51</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="219">
   <si>
     <t>Types of Collaterals</t>
   </si>
@@ -358,6 +360,12 @@
     <t>3E</t>
   </si>
   <si>
+    <t>Provision Stages</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
@@ -586,163 +594,103 @@
     <t>Internal Rating</t>
   </si>
   <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Aaa</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>Aa1</t>
+  </si>
+  <si>
+    <t>Aa2</t>
+  </si>
+  <si>
+    <t>Baa1</t>
+  </si>
+  <si>
+    <t>Baa2</t>
+  </si>
+  <si>
+    <t>BBB-</t>
+  </si>
+  <si>
+    <t>Baa3</t>
+  </si>
+  <si>
+    <t>Ba1</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Ba2</t>
+  </si>
+  <si>
+    <t>BB-</t>
+  </si>
+  <si>
+    <t>Ba3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>CCC+</t>
+  </si>
+  <si>
+    <t>Caa1</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>Caa2</t>
+  </si>
+  <si>
+    <t>CCC-</t>
+  </si>
+  <si>
+    <t>Caa3</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
     <t>PD 2023</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>Aaa</t>
-  </si>
-  <si>
-    <t>0.0020%</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>Aa1</t>
-  </si>
-  <si>
-    <t>0.0232%</t>
-  </si>
-  <si>
-    <t>Aa2</t>
-  </si>
-  <si>
-    <t>0.0518%</t>
-  </si>
-  <si>
-    <t>0.1112%</t>
-  </si>
-  <si>
-    <t>0.2080%</t>
-  </si>
-  <si>
-    <t>0.3796%</t>
-  </si>
-  <si>
-    <t>0.5940%</t>
-  </si>
-  <si>
-    <t>Baa1</t>
-  </si>
-  <si>
-    <t>0.9130%</t>
-  </si>
-  <si>
-    <t>Baa2</t>
-  </si>
-  <si>
-    <t>1.3200%</t>
-  </si>
-  <si>
-    <t>BBB-</t>
-  </si>
-  <si>
-    <t>Baa3</t>
-  </si>
-  <si>
-    <t>2.6180%</t>
-  </si>
-  <si>
-    <t>Ba1</t>
-  </si>
-  <si>
-    <t>4.6200%</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>Ba2</t>
-  </si>
-  <si>
-    <t>7.4800%</t>
-  </si>
-  <si>
-    <t>BB-</t>
-  </si>
-  <si>
-    <t>Ba3</t>
-  </si>
-  <si>
-    <t>10.7690%</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>15.2350%</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>19.9420%</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>26.4440%</t>
-  </si>
-  <si>
-    <t>CCC+</t>
-  </si>
-  <si>
-    <t>Caa1</t>
-  </si>
-  <si>
-    <t>35.7268%</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>Caa2</t>
-  </si>
-  <si>
-    <t>48.2680%</t>
-  </si>
-  <si>
-    <t>CCC-</t>
-  </si>
-  <si>
-    <t>Caa3</t>
-  </si>
-  <si>
-    <t>72.8662%</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>100.0000%</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>DD</t>
   </si>
   <si>
     <t>Internal risk rating</t>
@@ -1326,6 +1274,361 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC78998-D754-4CF0-B3FF-84CF1262C1BC}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>151840000</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="33">
+        <v>100000000</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="33">
+        <v>550000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>137280000</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="33">
+        <v>320000000</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="33">
+        <v>510000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>122720000</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="33">
+        <v>390000000</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="33">
+        <v>780000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>106080000</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="33">
+        <v>180000000</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="33">
+        <v>1040000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>91520000</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="33">
+        <v>270000000</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="33">
+        <v>360000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>68640000</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="33">
+        <v>560000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>56160000</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="33">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>47840000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>41600000</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33">
+        <v>35360000</v>
+      </c>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33">
+        <v>24960000</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33">
+        <v>17680000</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33">
+        <v>12480000</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33">
+        <v>9360000</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33">
+        <v>7280000</v>
+      </c>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33">
+        <v>3952000</v>
+      </c>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="31">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33">
+        <v>1144000</v>
+      </c>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="F19" s="33"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="33"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="33"/>
+      <c r="E34" s="33"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="33"/>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="33"/>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="33"/>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="33"/>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="33"/>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="33"/>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="33"/>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="33"/>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="33"/>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EAC753-FD4B-4174-9852-2B0C91699448}">
   <dimension ref="B1:F51"/>
@@ -2225,7 +2528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
@@ -7673,6 +7976,59 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61AC8B3-DFF3-48C4-A633-B21BCAF5C8FE}">
+  <dimension ref="B1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0525FA23-3CAD-4855-B532-1A977B48E93A}">
   <dimension ref="B2:G39"/>
   <sheetViews>
@@ -7692,27 +8048,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" s="16">
         <v>40426848</v>
@@ -7721,20 +8077,20 @@
         <v>2023</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F3" s="17">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8105165.6000000006</v>
+        <v>8091192.6000000006</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32321682.399999999</v>
+        <v>32335655.399999999</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C4" s="16">
         <v>53896550.399999999</v>
@@ -7743,20 +8099,20 @@
         <v>2022</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>10793323.08</v>
+        <v>10798596.08</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43103227.32</v>
+        <v>43097954.32</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30">
       <c r="B5" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C5" s="16">
         <v>67366252.799999997</v>
@@ -7765,20 +8121,20 @@
         <v>2019</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13490267.560000001</v>
+        <v>13476339.560000001</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>53875985.239999995</v>
+        <v>53889913.239999995</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C6" s="16">
         <v>94305657.600000009</v>
@@ -7787,20 +8143,20 @@
         <v>2023</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18865299.520000003</v>
+        <v>18871128.520000003</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75440358.080000013</v>
+        <v>75434529.080000013</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30">
       <c r="B7" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" s="16">
         <v>107760576</v>
@@ -7809,20 +8165,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>21570225.200000003</v>
+        <v>21574948.200000003</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>86190350.799999997</v>
+        <v>86185627.799999997</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" s="16">
         <v>121082438.39999999</v>
@@ -7831,20 +8187,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>24234179.68</v>
+        <v>24218545.68</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>96848258.719999999</v>
+        <v>96863892.719999999</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C9" s="16">
         <v>146543443.19999999</v>
@@ -7853,20 +8209,20 @@
         <v>2023</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29330453.640000001</v>
+        <v>29327420.640000001</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117212989.55999999</v>
+        <v>117216022.55999999</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="16">
         <v>16608345.6</v>
@@ -7875,20 +8231,20 @@
         <v>2022</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3345844.12</v>
+        <v>3335847.12</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>13262501.48</v>
+        <v>13272498.48</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="16">
         <v>33034848</v>
@@ -7897,20 +8253,20 @@
         <v>2019</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6614934.6000000006</v>
+        <v>6608405.6000000006</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>26419913.399999999</v>
+        <v>26426442.399999999</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30">
       <c r="B12" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C12" s="16">
         <v>49461350.399999999</v>
@@ -7919,20 +8275,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9917168.0800000001</v>
+        <v>9909908.0800000001</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>39544182.32</v>
+        <v>39551442.32</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C13" s="16">
         <v>65887852.800000004</v>
@@ -7941,20 +8297,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13191777.560000002</v>
+        <v>13200541.560000002</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>52696075.240000002</v>
+        <v>52687311.240000002</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C14" s="16">
         <v>82314355.199999988</v>
@@ -7963,20 +8319,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16477570.039999999</v>
+        <v>16478794.039999999</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>65836785.159999989</v>
+        <v>65835561.159999989</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C15" s="16">
         <v>98740857.600000009</v>
@@ -7985,20 +8341,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19767957.520000003</v>
+        <v>19758728.520000003</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>78972900.080000013</v>
+        <v>78982129.080000013</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30">
       <c r="B16" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C16" s="16">
         <v>115152576</v>
@@ -8007,20 +8363,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>23034014.200000003</v>
+        <v>23045457.200000003</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>92118561.799999997</v>
+        <v>92107118.799999997</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C17" s="16">
         <v>131431238.39999999</v>
@@ -8029,20 +8385,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26291399.68</v>
+        <v>26309657.68</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>105139838.72</v>
+        <v>105121580.72</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C18" s="16">
         <v>146379340.79999998</v>
@@ -8051,20 +8407,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29286737.159999996</v>
+        <v>29284356.159999996</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117092603.63999999</v>
+        <v>117094984.63999999</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C19" s="16">
         <v>14965843.200000001</v>
@@ -8073,20 +8429,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3007031.6400000006</v>
+        <v>2995152.6400000006</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>11958811.560000001</v>
+        <v>11970690.560000001</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C20" s="16">
         <v>31392345.599999998</v>
@@ -8095,20 +8451,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6279884.1200000001</v>
+        <v>6295257.1200000001</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>25112461.479999997</v>
+        <v>25097088.479999997</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C21" s="16">
         <v>47818848</v>
@@ -8117,20 +8473,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9576320.5999999996</v>
+        <v>9574502.5999999996</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>38242527.399999999</v>
+        <v>38244345.399999999</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30">
       <c r="B22" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C22" s="16">
         <v>64245350.399999999</v>
@@ -8139,20 +8495,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12849773.08</v>
+        <v>12870805.08</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>51395577.32</v>
+        <v>51374545.32</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C23" s="16">
         <v>80671852.799999997</v>
@@ -8161,20 +8517,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16150495.560000001</v>
+        <v>16142191.560000001</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>64521357.239999995</v>
+        <v>64529661.239999995</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30">
       <c r="B24" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C24" s="16">
         <v>97098355.199999988</v>
@@ -8183,20 +8539,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19431007.039999999</v>
+        <v>19439002.039999999</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>77667348.159999996</v>
+        <v>77659353.159999996</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C25" s="16">
         <v>113524857.60000001</v>
@@ -8205,20 +8561,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22705162.520000003</v>
+        <v>22723938.520000003</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>90819695.080000013</v>
+        <v>90800919.080000013</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C26" s="16">
         <v>129936576</v>
@@ -8227,20 +8583,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26011768.200000003</v>
+        <v>25999454.200000003</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>103924807.8</v>
+        <v>103937121.8</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30">
       <c r="B27" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C27" s="16">
         <v>146215238.40000001</v>
@@ -8249,20 +8605,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29252982.680000003</v>
+        <v>29250728.680000003</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>116962255.72</v>
+        <v>116964509.72</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C28" s="16">
         <v>28107340.799999997</v>
@@ -8271,20 +8627,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5636416.1600000001</v>
+        <v>5645421.1600000001</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>22470924.639999997</v>
+        <v>22461919.639999997</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C29" s="16">
         <v>44533843.199999996</v>
@@ -8293,20 +8649,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F29" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8928251.6399999987</v>
+        <v>8928726.6399999987</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>35605591.559999995</v>
+        <v>35605116.559999995</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30">
       <c r="B30" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C30" s="16">
         <v>60960345.599999994</v>
@@ -8315,20 +8671,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F30" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12203720.119999999</v>
+        <v>12206822.119999999</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>48756625.479999997</v>
+        <v>48753523.479999997</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C31" s="16">
         <v>77386848</v>
@@ -8337,20 +8693,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F31" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>15502198.600000001</v>
+        <v>15479040.600000001</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>61884649.399999999</v>
+        <v>61907807.399999999</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C32" s="16">
         <v>93813350.399999991</v>
@@ -8359,20 +8715,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F32" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18772202.079999998</v>
+        <v>18785668.079999998</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75041148.319999993</v>
+        <v>75027682.319999993</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30">
       <c r="B33" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C33" s="16">
         <v>110239852.8</v>
@@ -8381,20 +8737,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F33" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22056330.560000002</v>
+        <v>22062330.560000002</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>88183522.239999995</v>
+        <v>88177522.239999995</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C34" s="16">
         <v>126666355.19999999</v>
@@ -8403,20 +8759,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>25342022.039999999</v>
+        <v>25351782.039999999</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>101324333.16</v>
+        <v>101314573.16</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C35" s="16">
         <v>143092857.59999999</v>
@@ -8425,20 +8781,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>28633094.52</v>
+        <v>28638699.52</v>
       </c>
       <c r="G35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>114459763.08</v>
+        <v>114454158.08</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30">
       <c r="B36" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C36" s="16">
         <v>26448576</v>
@@ -8447,20 +8803,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F36" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5290547.2000000002</v>
+        <v>5301512.2</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>21158028.800000001</v>
+        <v>21147063.800000001</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C37" s="16">
         <v>42727238.399999999</v>
@@ -8469,20 +8825,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F37" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8546321.6799999997</v>
+        <v>8565763.6799999997</v>
       </c>
       <c r="G37" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>34180916.719999999</v>
+        <v>34161474.719999999</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C38" s="16">
         <v>57675340.800000004</v>
@@ -8491,20 +8847,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F38" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>11545662.160000002</v>
+        <v>11557157.160000002</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>46129678.640000001</v>
+        <v>46118183.640000001</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C39" s="16">
         <v>74101843.200000003</v>
@@ -8513,15 +8869,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F39" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>14840198.640000001</v>
+        <v>14832813.640000001</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>59261644.560000002</v>
+        <v>59269029.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -8529,7 +8885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67618C1-C8A0-47B6-8B25-F487EA031E1F}">
   <dimension ref="B2:F41"/>
   <sheetViews>
@@ -8557,10 +8913,10 @@
         <v>75</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -8572,10 +8928,10 @@
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -8589,10 +8945,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -8604,15 +8960,15 @@
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C40" s="19">
         <v>6</v>
@@ -8630,7 +8986,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C41" s="19">
         <v>7</v>
@@ -8651,7 +9007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63958FAE-3AAE-44C0-9CCD-F6FFBDEF2641}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -8688,13 +9044,13 @@
         <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8702,7 +9058,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -8714,10 +9070,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8739,10 +9095,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -8763,10 +9119,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8787,10 +9143,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8811,10 +9167,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8836,10 +9192,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -8861,10 +9217,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -8886,10 +9242,10 @@
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -8911,10 +9267,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -8936,10 +9292,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -8961,7 +9317,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -8983,10 +9339,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9008,7 +9364,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9031,7 +9387,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9053,7 +9409,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9075,10 +9431,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9100,7 +9456,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9122,7 +9478,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -9144,7 +9500,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9167,7 +9523,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -9189,7 +9545,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9211,7 +9567,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9233,7 +9589,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9255,7 +9611,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9277,7 +9633,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9299,7 +9655,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -9321,10 +9677,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9346,10 +9702,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -9371,7 +9727,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -9393,7 +9749,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9416,7 +9772,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9438,10 +9794,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -9463,10 +9819,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -9488,10 +9844,10 @@
         <v>16</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -9513,10 +9869,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -9538,7 +9894,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -9560,7 +9916,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -9582,7 +9938,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -9604,10 +9960,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -9629,10 +9985,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H41" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -9654,7 +10010,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -9676,7 +10032,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -9698,7 +10054,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -9720,7 +10076,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -9742,7 +10098,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -9764,7 +10120,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -9786,7 +10142,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9808,7 +10164,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9830,7 +10186,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9852,552 +10208,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFBA4B-6F4E-444D-93B2-E23E2D3BEB6D}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>192</v>
-      </c>
-      <c r="I9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>199</v>
-      </c>
-      <c r="I12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>205</v>
-      </c>
-      <c r="I14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>207</v>
-      </c>
-      <c r="I15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>210</v>
-      </c>
-      <c r="I16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>216</v>
-      </c>
-      <c r="I18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>219</v>
-      </c>
-      <c r="I19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>221</v>
-      </c>
-      <c r="B20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>222</v>
-      </c>
-      <c r="I20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>225</v>
-      </c>
-      <c r="I21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="C22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>227</v>
-      </c>
-      <c r="I22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" t="s">
-        <v>231</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="C25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -10406,342 +10217,415 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC78998-D754-4CF0-B3FF-84CF1262C1BC}">
-  <dimension ref="A1:J44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFBA4B-6F4E-444D-93B2-E23E2D3BEB6D}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="29" t="s">
+    <row r="1" spans="1:5" ht="30.75">
+      <c r="A1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="31">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
-        <v>151840000</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="33">
-        <v>100000000</v>
-      </c>
-      <c r="I2">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="J2" s="33">
-        <v>550000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="31">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33">
-        <v>137280000</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="33">
-        <v>320000000</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="33">
-        <v>510000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="31">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33">
-        <v>122720000</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="33">
-        <v>390000000</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="33">
-        <v>780000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="31">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33">
-        <v>106080000</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="33">
-        <v>180000000</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="33">
-        <v>1040000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="31">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33">
-        <v>91520000</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="33">
-        <v>270000000</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="33">
-        <v>360000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="31">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33">
-        <v>68640000</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="33">
-        <v>560000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="31">
-        <v>7</v>
-      </c>
-      <c r="B8" s="33">
-        <v>56160000</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="33">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="31">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33">
-        <v>47840000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="31">
-        <v>9</v>
-      </c>
-      <c r="B10" s="33">
-        <v>41600000</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="31">
-        <v>10</v>
-      </c>
-      <c r="B11" s="33">
-        <v>35360000</v>
-      </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="31">
-        <v>11</v>
-      </c>
-      <c r="B12" s="33">
-        <v>24960000</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="31">
-        <v>12</v>
-      </c>
-      <c r="B13" s="33">
-        <v>17680000</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="31">
-        <v>13</v>
-      </c>
-      <c r="B14" s="33">
-        <v>12480000</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="31">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33">
-        <v>9360000</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="31">
-        <v>15</v>
-      </c>
-      <c r="B16" s="33">
-        <v>7280000</v>
-      </c>
-      <c r="F16" s="33"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="31">
-        <v>16</v>
-      </c>
-      <c r="B17" s="33">
-        <v>3952000</v>
-      </c>
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="31">
-        <v>17</v>
-      </c>
-      <c r="B18" s="33">
-        <v>1144000</v>
-      </c>
-      <c r="F18" s="33"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="F19" s="33"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="C28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="C29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="C30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="C31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="C32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="33"/>
-      <c r="E33" s="33"/>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="33"/>
-      <c r="E34" s="33"/>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="33"/>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="33"/>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="33"/>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="33"/>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="33"/>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40" s="33"/>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="33"/>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" s="33"/>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="C43" s="33"/>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="C44" s="33"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10749,13 +10633,253 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD9A815-9678-4DD5-8888-96F7394EC73E}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30.75">
+      <c r="A1" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.11119999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0.37959999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2.6179999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>10.769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>15.234999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>19.942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>26.443999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>35.726799999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>48.268000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>72.866200000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sample_Bank_Data/JUN 2023.xlsx
+++ b/Sample_Bank_Data/JUN 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{25DD262F-A2BD-41E3-91F5-EDB06BBEBF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61DE8D77-DF1A-48E8-AE26-B769403276EF}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{25DD262F-A2BD-41E3-91F5-EDB06BBEBF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EE980E2-56E8-4C95-8970-798AB4DBB52A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="310">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -520,370 +520,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Provision Stages</t>
@@ -1944,21 +1689,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1972,7 +1717,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1986,7 +1731,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2000,7 +1745,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2014,7 +1759,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2028,7 +1773,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2042,7 +1787,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2056,7 +1801,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2070,7 +1815,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2084,7 +1829,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2098,7 +1843,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2112,7 +1857,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2126,7 +1871,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2140,7 +1885,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2154,7 +1899,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2168,7 +1913,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2182,7 +1927,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2196,7 +1941,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2210,7 +1955,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2224,7 +1969,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2238,7 +1983,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -2275,22 +2020,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>392</v>
+        <v>307</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>393</v>
+        <v>308</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>394</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8652,8 +8397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9516,7 +9261,7 @@
         <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9548,7 +9293,7 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9580,7 +9325,7 @@
         <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9612,7 +9357,7 @@
         <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9644,7 +9389,7 @@
         <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9676,7 +9421,7 @@
         <v>125</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9708,7 +9453,7 @@
         <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9740,7 +9485,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9772,7 +9517,7 @@
         <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9804,7 +9549,7 @@
         <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9836,7 +9581,7 @@
         <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9868,7 +9613,7 @@
         <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9900,7 +9645,7 @@
         <v>128</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9932,7 +9677,7 @@
         <v>125</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9964,7 +9709,7 @@
         <v>125</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9996,7 +9741,7 @@
         <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10028,7 +9773,7 @@
         <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10060,7 +9805,7 @@
         <v>128</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10092,7 +9837,7 @@
         <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10124,7 +9869,7 @@
         <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10156,7 +9901,7 @@
         <v>128</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10188,7 +9933,7 @@
         <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10220,7 +9965,7 @@
         <v>125</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10252,7 +9997,7 @@
         <v>128</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10284,7 +10029,7 @@
         <v>140</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10316,7 +10061,7 @@
         <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10348,7 +10093,7 @@
         <v>128</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10380,7 +10125,7 @@
         <v>125</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10412,7 +10157,7 @@
         <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10444,7 +10189,7 @@
         <v>128</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10476,7 +10221,7 @@
         <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10508,7 +10253,7 @@
         <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10540,7 +10285,7 @@
         <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10572,7 +10317,7 @@
         <v>125</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10604,7 +10349,7 @@
         <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10636,7 +10381,7 @@
         <v>128</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10668,7 +10413,7 @@
         <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10700,7 +10445,7 @@
         <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10732,7 +10477,7 @@
         <v>128</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10764,7 +10509,7 @@
         <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10796,7 +10541,7 @@
         <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10828,7 +10573,7 @@
         <v>128</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10860,7 +10605,7 @@
         <v>125</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10892,7 +10637,7 @@
         <v>125</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10924,7 +10669,7 @@
         <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10956,7 +10701,7 @@
         <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10988,7 +10733,7 @@
         <v>128</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11020,7 +10765,7 @@
         <v>128</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11052,7 +10797,7 @@
         <v>128</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11084,7 +10829,7 @@
         <v>125</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11116,7 +10861,7 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11148,7 +10893,7 @@
         <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11180,7 +10925,7 @@
         <v>133</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11212,7 +10957,7 @@
         <v>128</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11244,7 +10989,7 @@
         <v>125</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11276,7 +11021,7 @@
         <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11308,7 +11053,7 @@
         <v>140</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11340,7 +11085,7 @@
         <v>140</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11372,7 +11117,7 @@
         <v>128</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11404,7 +11149,7 @@
         <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11436,7 +11181,7 @@
         <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11468,7 +11213,7 @@
         <v>133</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11500,7 +11245,7 @@
         <v>140</v>
       </c>
       <c r="I89" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11532,7 +11277,7 @@
         <v>140</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11564,7 +11309,7 @@
         <v>128</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11596,7 +11341,7 @@
         <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11628,7 +11373,7 @@
         <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11660,7 +11405,7 @@
         <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11692,7 +11437,7 @@
         <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11724,7 +11469,7 @@
         <v>128</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11756,7 +11501,7 @@
         <v>140</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11788,7 +11533,7 @@
         <v>140</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11820,7 +11565,7 @@
         <v>128</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11852,7 +11597,7 @@
         <v>133</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11884,7 +11629,7 @@
         <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11916,7 +11661,7 @@
         <v>128</v>
       </c>
       <c r="I102" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11948,7 +11693,7 @@
         <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11980,7 +11725,7 @@
         <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12012,7 +11757,7 @@
         <v>140</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12044,7 +11789,7 @@
         <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12076,7 +11821,7 @@
         <v>128</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12108,7 +11853,7 @@
         <v>125</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12140,7 +11885,7 @@
         <v>125</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12172,7 +11917,7 @@
         <v>125</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12204,7 +11949,7 @@
         <v>125</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12236,7 +11981,7 @@
         <v>140</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12268,7 +12013,7 @@
         <v>140</v>
       </c>
       <c r="I113" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12300,7 +12045,7 @@
         <v>128</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12332,7 +12077,7 @@
         <v>125</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12364,7 +12109,7 @@
         <v>125</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12396,7 +12141,7 @@
         <v>133</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12428,7 +12173,7 @@
         <v>133</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12460,7 +12205,7 @@
         <v>125</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12492,7 +12237,7 @@
         <v>125</v>
       </c>
       <c r="I120" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12524,7 +12269,7 @@
         <v>133</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12556,7 +12301,7 @@
         <v>133</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12588,7 +12333,7 @@
         <v>140</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12620,7 +12365,7 @@
         <v>140</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12652,7 +12397,7 @@
         <v>125</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12684,7 +12429,7 @@
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12716,7 +12461,7 @@
         <v>128</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12748,7 +12493,7 @@
         <v>125</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12780,7 +12525,7 @@
         <v>125</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12812,7 +12557,7 @@
         <v>133</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12844,7 +12589,7 @@
         <v>133</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12876,7 +12621,7 @@
         <v>140</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12908,7 +12653,7 @@
         <v>140</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12940,7 +12685,7 @@
         <v>128</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12972,7 +12717,7 @@
         <v>133</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -13004,7 +12749,7 @@
         <v>133</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13036,7 +12781,7 @@
         <v>128</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13068,7 +12813,7 @@
         <v>125</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13100,7 +12845,7 @@
         <v>125</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13132,7 +12877,7 @@
         <v>140</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13164,7 +12909,7 @@
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13196,7 +12941,7 @@
         <v>140</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13228,7 +12973,7 @@
         <v>140</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13260,7 +13005,7 @@
         <v>128</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13292,7 +13037,7 @@
         <v>125</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13324,7 +13069,7 @@
         <v>125</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13356,7 +13101,7 @@
         <v>133</v>
       </c>
       <c r="I147" t="s">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13388,7 +13133,7 @@
         <v>133</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13414,7 +13159,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13444,7 +13189,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -13472,27 +13217,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="24" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="27" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="C3" s="28">
         <v>40426848</v>
@@ -13501,20 +13246,20 @@
         <v>2023</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8087933.6000000006</v>
+        <v>8088957.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32338914.399999999</v>
+        <v>32337890.399999999</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="27" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="C4" s="28">
         <v>53896550.399999999</v>
@@ -13523,20 +13268,20 @@
         <v>2022</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10799954.08</v>
+        <v>10788998.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43096596.32</v>
+        <v>43107552.32</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
       <c r="B5" s="27" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="C5" s="28">
         <v>67366252.799999997</v>
@@ -13545,20 +13290,20 @@
         <v>2019</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13495294.560000001</v>
+        <v>13484437.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53870958.239999995</v>
+        <v>53881815.239999995</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="27" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="C6" s="28">
         <v>94305657.600000009</v>
@@ -13567,20 +13312,20 @@
         <v>2023</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18863487.520000003</v>
+        <v>18875942.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75442170.080000013</v>
+        <v>75429715.080000013</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="27" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="C7" s="28">
         <v>107760576</v>
@@ -13589,20 +13334,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21573115.200000003</v>
+        <v>21562309.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86187460.799999997</v>
+        <v>86198266.799999997</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="27" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="C8" s="28">
         <v>121082438.40000001</v>
@@ -13611,20 +13356,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24230587.680000003</v>
+        <v>24218088.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96851850.719999999</v>
+        <v>96864349.719999999</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="27" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="C9" s="28">
         <v>146543443.19999999</v>
@@ -13633,20 +13378,20 @@
         <v>2023</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29317885.640000001</v>
+        <v>29326899.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117225557.55999999</v>
+        <v>117216543.55999999</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="27" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="C10" s="28">
         <v>16608345.6</v>
@@ -13655,20 +13400,20 @@
         <v>2022</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3339509.12</v>
+        <v>3331520.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13268836.48</v>
+        <v>13276825.48</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="27" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="C11" s="28">
         <v>33034848</v>
@@ -13677,20 +13422,20 @@
         <v>2019</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6622583.6000000006</v>
+        <v>6619468.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26412264.399999999</v>
+        <v>26415379.399999999</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1">
       <c r="B12" s="27" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="C12" s="28">
         <v>49461350.399999999</v>
@@ -13699,20 +13444,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9912310.0800000001</v>
+        <v>9892900.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39549040.32</v>
+        <v>39568450.32</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="27" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="C13" s="28">
         <v>65887852.799999997</v>
@@ -13721,20 +13466,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13193730.560000001</v>
+        <v>13201957.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52694122.239999995</v>
+        <v>52685895.239999995</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="27" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="C14" s="28">
         <v>82314355.199999988</v>
@@ -13743,20 +13488,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16467238.039999999</v>
+        <v>16487682.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65847117.159999989</v>
+        <v>65826673.159999989</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="27" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="C15" s="28">
         <v>98740857.600000009</v>
@@ -13765,20 +13510,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19770647.520000003</v>
+        <v>19748521.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78970210.080000013</v>
+        <v>78992336.080000013</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1">
       <c r="B16" s="27" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="C16" s="28">
         <v>115152576</v>
@@ -13787,20 +13532,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23049984.200000003</v>
+        <v>23038631.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92102591.799999997</v>
+        <v>92113944.799999997</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="27" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="C17" s="28">
         <v>131431238.40000001</v>
@@ -13809,20 +13554,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26294207.680000003</v>
+        <v>26291261.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105137030.72</v>
+        <v>105139976.72</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1">
       <c r="B18" s="27" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C18" s="28">
         <v>146379340.80000001</v>
@@ -13831,20 +13576,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29286233.160000004</v>
+        <v>29298322.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117093107.64000002</v>
+        <v>117081018.64000002</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="27" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="C19" s="28">
         <v>14965843.199999999</v>
@@ -13853,20 +13598,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3002176.64</v>
+        <v>3007318.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11963666.559999999</v>
+        <v>11958524.559999999</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="27" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="C20" s="28">
         <v>31392345.600000001</v>
@@ -13875,20 +13620,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6301235.120000001</v>
+        <v>6290099.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25091110.48</v>
+        <v>25102246.48</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="27" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="C21" s="28">
         <v>47818848</v>
@@ -13897,20 +13642,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9572054.5999999996</v>
+        <v>9572735.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38246793.399999999</v>
+        <v>38246112.399999999</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1">
       <c r="B22" s="27" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C22" s="28">
         <v>64245350.399999999</v>
@@ -13919,20 +13664,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12867931.08</v>
+        <v>12864048.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51377419.32</v>
+        <v>51381302.32</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="27" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="C23" s="28">
         <v>80671852.799999997</v>
@@ -13941,20 +13686,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16154967.560000001</v>
+        <v>16145509.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64516885.239999995</v>
+        <v>64526343.239999995</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="27" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="C24" s="28">
         <v>97098355.199999988</v>
@@ -13963,20 +13708,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19439923.039999999</v>
+        <v>19434737.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77658432.159999996</v>
+        <v>77663618.159999996</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="27" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="C25" s="28">
         <v>113524857.59999999</v>
@@ -13985,20 +13730,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22725416.52</v>
+        <v>22718414.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90799441.079999998</v>
+        <v>90806443.079999998</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="27" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C26" s="28">
         <v>129936576</v>
@@ -14007,20 +13752,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26006657.200000003</v>
+        <v>25995091.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103929918.8</v>
+        <v>103941484.8</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="27" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="C27" s="28">
         <v>146215238.40000001</v>
@@ -14029,20 +13774,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29261907.680000003</v>
+        <v>29259475.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116953330.72</v>
+        <v>116955762.72</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="27" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="C28" s="28">
         <v>28107340.800000001</v>
@@ -14051,20 +13796,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5637757.1600000001</v>
+        <v>5627280.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22469583.640000001</v>
+        <v>22480060.640000001</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="27" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="C29" s="28">
         <v>44533843.200000003</v>
@@ -14073,20 +13818,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8907937.6400000006</v>
+        <v>8916094.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35625905.560000002</v>
+        <v>35617748.560000002</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="27" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="C30" s="28">
         <v>60960345.599999987</v>
@@ -14095,20 +13840,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12198589.119999997</v>
+        <v>12215488.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48761756.479999989</v>
+        <v>48744857.479999989</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="27" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="C31" s="28">
         <v>77386848</v>
@@ -14117,20 +13862,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15497461.600000001</v>
+        <v>15495269.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61889386.399999999</v>
+        <v>61891578.399999999</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="27" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="C32" s="28">
         <v>93813350.399999991</v>
@@ -14139,20 +13884,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18786359.079999998</v>
+        <v>18779430.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75026991.319999993</v>
+        <v>75033920.319999993</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="27" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="C33" s="28">
         <v>110239852.8</v>
@@ -14161,20 +13906,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22063580.560000002</v>
+        <v>22056748.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88176272.239999995</v>
+        <v>88183104.239999995</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="27" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="C34" s="28">
         <v>126666355.2</v>
@@ -14183,20 +13928,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25337093.040000003</v>
+        <v>25347092.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101329262.16</v>
+        <v>101319263.16</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="27" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="C35" s="28">
         <v>143092857.59999999</v>
@@ -14205,20 +13950,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28624136.52</v>
+        <v>28640788.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114468721.08</v>
+        <v>114452069.08</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="27" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C36" s="28">
         <v>26448576</v>
@@ -14227,20 +13972,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5298080.2</v>
+        <v>5297035.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21150495.800000001</v>
+        <v>21151540.800000001</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="27" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="C37" s="28">
         <v>42727238.399999999</v>
@@ -14249,20 +13994,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8551390.6799999997</v>
+        <v>8565561.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34175847.719999999</v>
+        <v>34161676.719999999</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="27" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
       <c r="C38" s="28">
         <v>57675340.799999997</v>
@@ -14271,20 +14016,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11546910.16</v>
+        <v>11558882.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46128430.640000001</v>
+        <v>46116458.640000001</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="27" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="C39" s="28">
         <v>74101843.200000003</v>
@@ -14293,15 +14038,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14833055.640000001</v>
+        <v>14835832.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59268787.560000002</v>
+        <v>59266010.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14337,10 +14082,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14352,10 +14097,10 @@
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -14369,10 +14114,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -14384,15 +14129,15 @@
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="30" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="C40" s="30">
         <v>6</v>
@@ -14410,7 +14155,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="30" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="C41" s="30">
         <v>7</v>
@@ -14468,13 +14213,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14482,7 +14227,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14494,10 +14239,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H2" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14519,10 +14264,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14543,10 +14288,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="H4" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14567,10 +14312,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H5" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14591,10 +14336,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="H6" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14616,10 +14361,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="H7" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14641,10 +14386,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14666,10 +14411,10 @@
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H9" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14691,10 +14436,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H10" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14716,10 +14461,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="H11" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14741,7 +14486,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14763,10 +14508,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H13" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14788,7 +14533,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14811,7 +14556,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14833,7 +14578,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14855,10 +14600,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H17" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14880,7 +14625,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14902,7 +14647,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14924,7 +14669,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14947,7 +14692,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14969,7 +14714,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14991,7 +14736,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15013,7 +14758,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15035,7 +14780,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15057,7 +14802,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15079,7 +14824,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15101,10 +14846,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H28" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15126,10 +14871,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H29" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15151,7 +14896,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15173,7 +14918,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15196,7 +14941,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15218,10 +14963,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H33" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15243,10 +14988,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H34" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15268,10 +15013,10 @@
         <v>16</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H35" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15293,10 +15038,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H36" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15318,7 +15063,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15340,7 +15085,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15362,7 +15107,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15384,10 +15129,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H40" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15409,10 +15154,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H41" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15434,7 +15179,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15456,7 +15201,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15478,7 +15223,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15500,7 +15245,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15522,7 +15267,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15544,7 +15289,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15566,7 +15311,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15588,7 +15333,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15610,7 +15355,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15632,7 +15377,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -15652,30 +15397,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -15686,13 +15431,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -15703,13 +15448,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -15720,13 +15465,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -15737,13 +15482,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -15754,13 +15499,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -15771,13 +15516,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -15788,13 +15533,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -15805,13 +15550,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -15822,13 +15567,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -15839,13 +15584,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -15856,13 +15601,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -15873,13 +15618,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -15890,13 +15635,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="C15" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -15907,13 +15652,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="B16" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="C16" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -15924,13 +15669,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="C17" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -15941,13 +15686,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="C18" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -15958,13 +15703,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -15975,13 +15720,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="C20" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -15992,13 +15737,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="B21" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="C21" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -16009,7 +15754,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -16020,13 +15765,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="B23" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="C23" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -16034,10 +15779,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -16045,7 +15790,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="D25">
         <v>1</v>

--- a/Sample_Bank_Data/JUN 2023.xlsx
+++ b/Sample_Bank_Data/JUN 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{25DD262F-A2BD-41E3-91F5-EDB06BBEBF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EE980E2-56E8-4C95-8970-798AB4DBB52A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{25DD262F-A2BD-41E3-91F5-EDB06BBEBF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52AF5953-9AA7-4963-A60A-D931632C4EEB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="307">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -467,9 +461,6 @@
   </si>
   <si>
     <t>Building4</t>
-  </si>
-  <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>75%</t>
@@ -1689,21 +1680,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>270</v>
-      </c>
       <c r="C1" s="33" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1717,7 +1708,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1731,7 +1722,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1745,7 +1736,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1759,7 +1750,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1773,7 +1764,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1787,7 +1778,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1801,7 +1792,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1815,7 +1806,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1829,7 +1820,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1843,7 +1834,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1857,7 +1848,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1871,7 +1862,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1885,7 +1876,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1899,7 +1890,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1913,7 +1904,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1927,7 +1918,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1941,7 +1932,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1955,7 +1946,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -1969,7 +1960,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -1983,7 +1974,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -2020,22 +2011,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8397,8 +8388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8449,7 +8440,7 @@
         <v>6340637</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8458,10 +8449,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8481,7 +8472,7 @@
         <v>6340637</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8490,10 +8481,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8522,10 +8513,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8545,7 +8536,7 @@
         <v>12479201</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8554,10 +8545,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8577,7 +8568,7 @@
         <v>12479201</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8586,10 +8577,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8609,7 +8600,7 @@
         <v>49388838</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8618,10 +8609,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8641,7 +8632,7 @@
         <v>49388838</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8650,10 +8641,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8682,10 +8673,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8705,7 +8696,7 @@
         <v>49404412</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -8714,10 +8705,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -8737,7 +8728,7 @@
         <v>49404412</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -8746,10 +8737,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -8769,7 +8760,7 @@
         <v>11745240</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -8778,10 +8769,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -8801,7 +8792,7 @@
         <v>11745240</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -8810,10 +8801,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -8833,7 +8824,7 @@
         <v>38279788</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -8842,10 +8833,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -8865,7 +8856,7 @@
         <v>38279788</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -8874,10 +8865,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -8906,10 +8897,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -8929,7 +8920,7 @@
         <v>28407308</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -8938,10 +8929,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -8961,7 +8952,7 @@
         <v>28407308</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -8970,10 +8961,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -8993,7 +8984,7 @@
         <v>43828298.5</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -9002,10 +8993,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9025,7 +9016,7 @@
         <v>43828298.5</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9034,10 +9025,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9057,7 +9048,7 @@
         <v>27160143</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -9066,10 +9057,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9089,7 +9080,7 @@
         <v>27160143</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -9098,10 +9089,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9121,7 +9112,7 @@
         <v>11726308</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9130,10 +9121,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9153,7 +9144,7 @@
         <v>11726308</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9162,10 +9153,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9185,7 +9176,7 @@
         <v>33944746.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9194,10 +9185,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9217,7 +9208,7 @@
         <v>33944746.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9226,10 +9217,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9249,7 +9240,7 @@
         <v>16063255.5</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9258,10 +9249,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9281,7 +9272,7 @@
         <v>16063255.5</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9290,10 +9281,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9313,7 +9304,7 @@
         <v>38270331</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9322,10 +9313,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9345,7 +9336,7 @@
         <v>38270331</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9354,10 +9345,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9386,10 +9377,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9409,7 +9400,7 @@
         <v>10549938</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9418,10 +9409,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9441,7 +9432,7 @@
         <v>10549938</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9450,10 +9441,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9473,7 +9464,7 @@
         <v>45076260.5</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9482,10 +9473,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9505,7 +9496,7 @@
         <v>45076260.5</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9514,10 +9505,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9546,10 +9537,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9569,7 +9560,7 @@
         <v>49377485.5</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9578,10 +9569,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9601,7 +9592,7 @@
         <v>49377485.5</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9610,10 +9601,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9642,10 +9633,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9665,7 +9656,7 @@
         <v>11739624.5</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9674,10 +9665,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9697,7 +9688,7 @@
         <v>11739624.5</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -9706,10 +9697,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9729,7 +9720,7 @@
         <v>32725763</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -9738,10 +9729,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9761,7 +9752,7 @@
         <v>32725763</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -9770,10 +9761,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -9802,10 +9793,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -9825,7 +9816,7 @@
         <v>39445537</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -9834,10 +9825,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -9857,7 +9848,7 @@
         <v>39445537</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -9866,10 +9857,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -9898,10 +9889,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -9921,7 +9912,7 @@
         <v>22843871</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -9930,10 +9921,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -9953,7 +9944,7 @@
         <v>22843871</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -9962,10 +9953,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -9994,10 +9985,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10017,7 +10008,7 @@
         <v>6190778</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -10026,10 +10017,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10049,7 +10040,7 @@
         <v>6190778</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -10058,10 +10049,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10090,10 +10081,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10113,7 +10104,7 @@
         <v>6187858.5</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10122,10 +10113,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10145,7 +10136,7 @@
         <v>6187858.5</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10154,10 +10145,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10186,10 +10177,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10209,7 +10200,7 @@
         <v>17279131.5</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10218,10 +10209,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10241,7 +10232,7 @@
         <v>17279131.5</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10250,10 +10241,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10282,10 +10273,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10305,7 +10296,7 @@
         <v>38277955.5</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10314,10 +10305,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10337,7 +10328,7 @@
         <v>38277955.5</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10346,10 +10337,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10378,10 +10369,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10401,7 +10392,7 @@
         <v>6179930.5</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10410,10 +10401,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10433,7 +10424,7 @@
         <v>6179930.5</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10442,10 +10433,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10474,10 +10465,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10497,7 +10488,7 @@
         <v>32723389.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10506,10 +10497,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10529,7 +10520,7 @@
         <v>32723389.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10538,10 +10529,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10570,10 +10561,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10593,7 +10584,7 @@
         <v>28408291.5</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10602,10 +10593,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10625,7 +10616,7 @@
         <v>28408291.5</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10634,10 +10625,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10657,7 +10648,7 @@
         <v>39456630</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10666,10 +10657,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10689,7 +10680,7 @@
         <v>39456630</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -10698,10 +10689,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10730,10 +10721,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10762,10 +10753,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -10794,10 +10785,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -10817,7 +10808,7 @@
         <v>38267186</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -10826,10 +10817,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -10849,7 +10840,7 @@
         <v>38267186</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -10858,10 +10849,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -10881,7 +10872,7 @@
         <v>43840636.5</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -10890,10 +10881,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -10913,7 +10904,7 @@
         <v>43840636.5</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -10922,10 +10913,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -10954,10 +10945,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -10977,7 +10968,7 @@
         <v>22843003</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -10986,10 +10977,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11009,7 +11000,7 @@
         <v>22843003</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -11018,10 +11009,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11041,7 +11032,7 @@
         <v>11741906.5</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -11050,10 +11041,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11073,7 +11064,7 @@
         <v>11741906.5</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -11082,10 +11073,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11114,10 +11105,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11146,10 +11137,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11169,7 +11160,7 @@
         <v>28401086</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11178,10 +11169,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11201,7 +11192,7 @@
         <v>28401086</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11210,10 +11201,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11233,7 +11224,7 @@
         <v>33941397</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11242,10 +11233,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11265,7 +11256,7 @@
         <v>33941397</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11274,10 +11265,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11306,10 +11297,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11329,7 +11320,7 @@
         <v>5480766</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11338,10 +11329,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11361,7 +11352,7 @@
         <v>5480766</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11370,10 +11361,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11393,7 +11384,7 @@
         <v>5499377</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11402,10 +11393,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11425,7 +11416,7 @@
         <v>5499377</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11434,10 +11425,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11466,10 +11457,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11489,7 +11480,7 @@
         <v>43825877</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11498,10 +11489,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11521,7 +11512,7 @@
         <v>43825877</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11530,10 +11521,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11562,10 +11553,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11585,7 +11576,7 @@
         <v>11725927</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11594,10 +11585,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11617,7 +11608,7 @@
         <v>11725927</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11626,10 +11617,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11658,10 +11649,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11681,7 +11672,7 @@
         <v>49386791</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -11690,10 +11681,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11713,7 +11704,7 @@
         <v>49386791</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -11722,10 +11713,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11745,7 +11736,7 @@
         <v>11747672</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -11754,10 +11745,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11777,7 +11768,7 @@
         <v>11747672</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -11786,10 +11777,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -11818,10 +11809,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -11841,7 +11832,7 @@
         <v>6172307.5</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -11850,10 +11841,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -11873,7 +11864,7 @@
         <v>6172307.5</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -11882,10 +11873,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -11905,7 +11896,7 @@
         <v>17273118</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -11914,10 +11905,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -11937,7 +11928,7 @@
         <v>17273118</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -11946,10 +11937,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -11969,7 +11960,7 @@
         <v>32713900</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -11978,10 +11969,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12001,7 +11992,7 @@
         <v>32713900</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -12010,10 +12001,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12042,10 +12033,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12065,7 +12056,7 @@
         <v>38275266.5</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -12074,10 +12065,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12097,7 +12088,7 @@
         <v>38275266.5</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12106,10 +12097,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12129,7 +12120,7 @@
         <v>49394213.5</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12138,10 +12129,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12161,7 +12152,7 @@
         <v>49394213.5</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12170,10 +12161,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12193,7 +12184,7 @@
         <v>22839390.5</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12202,10 +12193,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12225,7 +12216,7 @@
         <v>22839390.5</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12234,10 +12225,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12257,7 +12248,7 @@
         <v>22841854.5</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12266,10 +12257,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12289,7 +12280,7 @@
         <v>22841854.5</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12298,10 +12289,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12321,7 +12312,7 @@
         <v>11735615</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12330,10 +12321,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12353,7 +12344,7 @@
         <v>11735615</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12362,10 +12353,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12385,7 +12376,7 @@
         <v>32708004.5</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12394,10 +12385,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12417,7 +12408,7 @@
         <v>32708004.5</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12426,10 +12417,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12458,10 +12449,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12481,7 +12472,7 @@
         <v>28383696</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12490,10 +12481,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12513,7 +12504,7 @@
         <v>28383696</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12522,10 +12513,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12545,7 +12536,7 @@
         <v>17271245</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12554,10 +12545,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12577,7 +12568,7 @@
         <v>17271245</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12586,10 +12577,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12609,7 +12600,7 @@
         <v>27153559.5</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12618,10 +12609,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12641,7 +12632,7 @@
         <v>27153559.5</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12650,10 +12641,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12682,10 +12673,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12705,7 +12696,7 @@
         <v>33946848</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -12714,10 +12705,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12737,7 +12728,7 @@
         <v>33946848</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -12746,10 +12737,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12778,10 +12769,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12801,7 +12792,7 @@
         <v>21598596.5</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -12810,10 +12801,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -12833,7 +12824,7 @@
         <v>21598596.5</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -12842,10 +12833,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -12865,7 +12856,7 @@
         <v>32718827.5</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -12874,10 +12865,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -12897,7 +12888,7 @@
         <v>32718827.5</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -12906,10 +12897,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -12929,7 +12920,7 @@
         <v>39457291</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -12938,10 +12929,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -12961,7 +12952,7 @@
         <v>39457291</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -12970,10 +12961,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13002,10 +12993,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13025,7 +13016,7 @@
         <v>16053856</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13034,10 +13025,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13057,7 +13048,7 @@
         <v>16053856</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -13066,10 +13057,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13089,7 +13080,7 @@
         <v>27149977.5</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -13098,10 +13089,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13121,7 +13112,7 @@
         <v>27149977.5</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13130,10 +13121,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13159,7 +13150,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13189,7 +13180,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -13217,27 +13208,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>197</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="28">
         <v>40426848</v>
@@ -13246,20 +13237,20 @@
         <v>2023</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8088957.6000000006</v>
+        <v>8089294.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32337890.399999999</v>
+        <v>32337553.399999999</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C4" s="28">
         <v>53896550.399999999</v>
@@ -13268,20 +13259,20 @@
         <v>2022</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10788998.08</v>
+        <v>10788694.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43107552.32</v>
+        <v>43107856.32</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
       <c r="B5" s="27" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C5" s="28">
         <v>67366252.799999997</v>
@@ -13290,20 +13281,20 @@
         <v>2019</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13484437.560000001</v>
+        <v>13482016.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53881815.239999995</v>
+        <v>53884236.239999995</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C6" s="28">
         <v>94305657.600000009</v>
@@ -13312,20 +13303,20 @@
         <v>2023</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18875942.520000003</v>
+        <v>18869529.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75429715.080000013</v>
+        <v>75436128.080000013</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="28">
         <v>107760576</v>
@@ -13334,20 +13325,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21562309.200000003</v>
+        <v>21557032.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86198266.799999997</v>
+        <v>86203543.799999997</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C8" s="28">
         <v>121082438.40000001</v>
@@ -13356,20 +13347,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24218088.680000003</v>
+        <v>24222995.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96864349.719999999</v>
+        <v>96859442.719999999</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C9" s="28">
         <v>146543443.19999999</v>
@@ -13378,20 +13369,20 @@
         <v>2023</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29326899.640000001</v>
+        <v>29321920.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117216543.55999999</v>
+        <v>117221522.55999999</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C10" s="28">
         <v>16608345.6</v>
@@ -13400,20 +13391,20 @@
         <v>2022</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3331520.12</v>
+        <v>3330244.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13276825.48</v>
+        <v>13278101.48</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C11" s="28">
         <v>33034848</v>
@@ -13422,20 +13413,20 @@
         <v>2019</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6619468.6000000006</v>
+        <v>6629852.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26415379.399999999</v>
+        <v>26404995.399999999</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1">
       <c r="B12" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C12" s="28">
         <v>49461350.399999999</v>
@@ -13444,20 +13435,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9892900.0800000001</v>
+        <v>9900663.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39568450.32</v>
+        <v>39560687.32</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C13" s="28">
         <v>65887852.799999997</v>
@@ -13466,20 +13457,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13201957.560000001</v>
+        <v>13180847.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52685895.239999995</v>
+        <v>52707005.239999995</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C14" s="28">
         <v>82314355.199999988</v>
@@ -13488,20 +13479,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16487682.039999999</v>
+        <v>16484211.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65826673.159999989</v>
+        <v>65830144.159999989</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="27" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C15" s="28">
         <v>98740857.600000009</v>
@@ -13510,20 +13501,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19748521.520000003</v>
+        <v>19769473.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78992336.080000013</v>
+        <v>78971384.080000013</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1">
       <c r="B16" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C16" s="28">
         <v>115152576</v>
@@ -13532,20 +13523,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23038631.200000003</v>
+        <v>23039036.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92113944.799999997</v>
+        <v>92113539.799999997</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C17" s="28">
         <v>131431238.40000001</v>
@@ -13554,20 +13545,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26291261.680000003</v>
+        <v>26290058.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105139976.72</v>
+        <v>105141179.72</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1">
       <c r="B18" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C18" s="28">
         <v>146379340.80000001</v>
@@ -13576,20 +13567,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29298322.160000004</v>
+        <v>29282943.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117081018.64000002</v>
+        <v>117096397.64000002</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C19" s="28">
         <v>14965843.199999999</v>
@@ -13598,20 +13589,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3007318.64</v>
+        <v>3014400.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11958524.559999999</v>
+        <v>11951442.559999999</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="27" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C20" s="28">
         <v>31392345.600000001</v>
@@ -13620,20 +13611,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6290099.120000001</v>
+        <v>6300553.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25102246.48</v>
+        <v>25091792.48</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C21" s="28">
         <v>47818848</v>
@@ -13642,20 +13633,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9572735.5999999996</v>
+        <v>9570242.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38246112.399999999</v>
+        <v>38248605.399999999</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1">
       <c r="B22" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C22" s="28">
         <v>64245350.399999999</v>
@@ -13664,20 +13655,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12864048.08</v>
+        <v>12873271.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51381302.32</v>
+        <v>51372079.32</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C23" s="28">
         <v>80671852.799999997</v>
@@ -13686,20 +13677,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16145509.560000001</v>
+        <v>16139344.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64526343.239999995</v>
+        <v>64532508.239999995</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C24" s="28">
         <v>97098355.199999988</v>
@@ -13708,20 +13699,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19434737.039999999</v>
+        <v>19427617.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77663618.159999996</v>
+        <v>77670738.159999996</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C25" s="28">
         <v>113524857.59999999</v>
@@ -13730,20 +13721,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22718414.52</v>
+        <v>22709070.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90806443.079999998</v>
+        <v>90815787.079999998</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C26" s="28">
         <v>129936576</v>
@@ -13752,20 +13743,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25995091.200000003</v>
+        <v>25995721.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103941484.8</v>
+        <v>103940854.8</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C27" s="28">
         <v>146215238.40000001</v>
@@ -13774,20 +13765,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29259475.680000003</v>
+        <v>29254433.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116955762.72</v>
+        <v>116960804.72</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C28" s="28">
         <v>28107340.800000001</v>
@@ -13796,20 +13787,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5627280.1600000001</v>
+        <v>5636126.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22480060.640000001</v>
+        <v>22471214.640000001</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C29" s="28">
         <v>44533843.200000003</v>
@@ -13818,20 +13809,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8916094.6400000006</v>
+        <v>8921770.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35617748.560000002</v>
+        <v>35612072.560000002</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C30" s="28">
         <v>60960345.599999987</v>
@@ -13840,20 +13831,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12215488.119999997</v>
+        <v>12195320.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48744857.479999989</v>
+        <v>48765025.479999989</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C31" s="28">
         <v>77386848</v>
@@ -13862,20 +13853,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15495269.600000001</v>
+        <v>15496842.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61891578.399999999</v>
+        <v>61890005.399999999</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C32" s="28">
         <v>93813350.399999991</v>
@@ -13884,20 +13875,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18779430.079999998</v>
+        <v>18771455.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75033920.319999993</v>
+        <v>75041895.319999993</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C33" s="28">
         <v>110239852.8</v>
@@ -13906,20 +13897,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22056748.560000002</v>
+        <v>22066713.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88183104.239999995</v>
+        <v>88173139.239999995</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C34" s="28">
         <v>126666355.2</v>
@@ -13928,20 +13919,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25347092.040000003</v>
+        <v>25336752.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101319263.16</v>
+        <v>101329603.16</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C35" s="28">
         <v>143092857.59999999</v>
@@ -13950,20 +13941,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28640788.52</v>
+        <v>28628522.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114452069.08</v>
+        <v>114464335.08</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C36" s="28">
         <v>26448576</v>
@@ -13972,20 +13963,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5297035.2</v>
+        <v>5312323.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21151540.800000001</v>
+        <v>21136252.800000001</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C37" s="28">
         <v>42727238.399999999</v>
@@ -13994,20 +13985,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8565561.6799999997</v>
+        <v>8549444.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34161676.719999999</v>
+        <v>34177793.719999999</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C38" s="28">
         <v>57675340.799999997</v>
@@ -14016,20 +14007,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11558882.16</v>
+        <v>11540648.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46116458.640000001</v>
+        <v>46134692.640000001</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="27" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C39" s="28">
         <v>74101843.200000003</v>
@@ -14038,15 +14029,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14835832.640000001</v>
+        <v>14836780.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59266010.560000002</v>
+        <v>59265062.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14082,10 +14073,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14097,10 +14088,10 @@
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -14114,10 +14105,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -14129,15 +14120,15 @@
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C40" s="30">
         <v>6</v>
@@ -14155,7 +14146,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C41" s="30">
         <v>7</v>
@@ -14213,13 +14204,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14227,7 +14218,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14239,10 +14230,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14264,10 +14255,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14288,10 +14279,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14312,10 +14303,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14336,10 +14327,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14361,10 +14352,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14386,10 +14377,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14411,10 +14402,10 @@
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14436,10 +14427,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14461,10 +14452,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14486,7 +14477,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14508,10 +14499,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14533,7 +14524,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14556,7 +14547,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14578,7 +14569,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14600,10 +14591,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14625,7 +14616,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14647,7 +14638,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14669,7 +14660,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14692,7 +14683,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14714,7 +14705,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14736,7 +14727,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14758,7 +14749,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14780,7 +14771,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14802,7 +14793,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14824,7 +14815,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14846,10 +14837,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14871,10 +14862,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14896,7 +14887,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -14918,7 +14909,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -14941,7 +14932,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -14963,10 +14954,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -14988,10 +14979,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15013,10 +15004,10 @@
         <v>16</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15038,10 +15029,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15063,7 +15054,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15085,7 +15076,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15107,7 +15098,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15129,10 +15120,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H40" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15154,10 +15145,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H41" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15179,7 +15170,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15201,7 +15192,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15223,7 +15214,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15245,7 +15236,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15267,7 +15258,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15289,7 +15280,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15311,7 +15302,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15333,7 +15324,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15355,7 +15346,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15377,7 +15368,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -15397,30 +15388,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>267</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -15431,13 +15422,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -15448,13 +15439,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -15465,13 +15456,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -15482,13 +15473,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -15499,13 +15490,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -15516,13 +15507,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
         <v>258</v>
-      </c>
-      <c r="C8" t="s">
-        <v>261</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -15533,13 +15524,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -15550,13 +15541,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -15567,13 +15558,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -15584,13 +15575,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -15601,13 +15592,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -15618,13 +15609,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -15635,13 +15626,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -15652,13 +15643,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -15669,13 +15660,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -15686,13 +15677,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -15703,13 +15694,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -15720,13 +15711,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -15737,13 +15728,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -15754,7 +15745,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -15765,13 +15756,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -15779,10 +15770,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -15790,7 +15781,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D25">
         <v>1</v>

--- a/Sample_Bank_Data/JUN 2023.xlsx
+++ b/Sample_Bank_Data/JUN 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{25DD262F-A2BD-41E3-91F5-EDB06BBEBF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52AF5953-9AA7-4963-A60A-D931632C4EEB}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{25DD262F-A2BD-41E3-91F5-EDB06BBEBF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CB35655-3320-47C7-99A2-ACC57C5F8B59}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="307">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -3242,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8388,7 +8388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
@@ -13190,10 +13190,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:G39"/>
+  <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13206,7 +13206,10 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="24" t="s">
         <v>192</v>
       </c>
@@ -13226,7 +13229,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="27" t="s">
         <v>198</v>
       </c>
@@ -13241,14 +13247,17 @@
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8089294.6000000006</v>
+        <v>8107244.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32337553.399999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>32319603.399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="27" t="s">
         <v>200</v>
       </c>
@@ -13263,14 +13272,17 @@
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10788694.08</v>
+        <v>10790914.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43107856.32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1">
+        <v>43105636.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="27" t="s">
         <v>201</v>
       </c>
@@ -13285,14 +13297,17 @@
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13482016.560000001</v>
+        <v>13486187.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53884236.239999995</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>53880065.239999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="27" t="s">
         <v>202</v>
       </c>
@@ -13307,14 +13322,17 @@
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18869529.520000003</v>
+        <v>18879978.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75436128.080000013</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>75425679.080000013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="27" t="s">
         <v>203</v>
       </c>
@@ -13329,14 +13347,17 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21557032.200000003</v>
+        <v>21571622.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86203543.799999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>86188953.799999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="27" t="s">
         <v>204</v>
       </c>
@@ -13351,14 +13372,17 @@
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24222995.680000003</v>
+        <v>24237872.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96859442.719999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>96844565.719999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="27" t="s">
         <v>205</v>
       </c>
@@ -13373,14 +13397,17 @@
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29321920.640000001</v>
+        <v>29315423.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117221522.55999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>117228019.55999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="27" t="s">
         <v>206</v>
       </c>
@@ -13395,14 +13422,17 @@
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3330244.12</v>
+        <v>3329412.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13278101.48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>13278933.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="27" t="s">
         <v>207</v>
       </c>
@@ -13417,14 +13447,17 @@
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6629852.6000000006</v>
+        <v>6607448.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26404995.399999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1">
+        <v>26427399.399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="27" t="s">
         <v>208</v>
       </c>
@@ -13439,14 +13472,17 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9900663.0800000001</v>
+        <v>9910274.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39560687.32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>39551076.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="27" t="s">
         <v>209</v>
       </c>
@@ -13461,14 +13497,17 @@
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13180847.560000001</v>
+        <v>13198602.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52707005.239999995</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>52689250.239999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="27" t="s">
         <v>210</v>
       </c>
@@ -13483,14 +13522,17 @@
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16484211.039999999</v>
+        <v>16475208.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65830144.159999989</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+        <v>65839147.159999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="27" t="s">
         <v>211</v>
       </c>
@@ -13505,14 +13547,17 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19769473.520000003</v>
+        <v>19769933.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78971384.080000013</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1">
+        <v>78970924.080000013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="27" t="s">
         <v>213</v>
       </c>
@@ -13527,14 +13572,17 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23039036.200000003</v>
+        <v>23038772.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92113539.799999997</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>92113803.799999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="27" t="s">
         <v>214</v>
       </c>
@@ -13549,14 +13597,17 @@
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26290058.680000003</v>
+        <v>26304056.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105141179.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+        <v>105127181.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="27" t="s">
         <v>215</v>
       </c>
@@ -13571,14 +13622,17 @@
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29282943.160000004</v>
+        <v>29283387.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117096397.64000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>117095953.64000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="27" t="s">
         <v>216</v>
       </c>
@@ -13593,14 +13647,17 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3014400.64</v>
+        <v>3013783.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11951442.559999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>11952059.559999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="27" t="s">
         <v>217</v>
       </c>
@@ -13615,14 +13672,17 @@
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6300553.120000001</v>
+        <v>6288710.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25091792.48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+        <v>25103635.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="27" t="s">
         <v>218</v>
       </c>
@@ -13637,14 +13697,17 @@
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9570242.5999999996</v>
+        <v>9579598.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38248605.399999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+        <v>38239249.399999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="27" t="s">
         <v>219</v>
       </c>
@@ -13659,14 +13722,17 @@
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12873271.08</v>
+        <v>12849378.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51372079.32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>51395972.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="27" t="s">
         <v>220</v>
       </c>
@@ -13681,14 +13747,17 @@
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16139344.560000001</v>
+        <v>16150228.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64532508.239999995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+        <v>64521624.239999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="27" t="s">
         <v>221</v>
       </c>
@@ -13703,14 +13772,17 @@
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19427617.039999999</v>
+        <v>19426208.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77670738.159999996</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>77672147.159999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="27" t="s">
         <v>222</v>
       </c>
@@ -13725,14 +13797,17 @@
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22709070.52</v>
+        <v>22722286.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90815787.079999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>90802571.079999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="27" t="s">
         <v>223</v>
       </c>
@@ -13747,14 +13822,17 @@
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25995721.200000003</v>
+        <v>25999318.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103940854.8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>103937257.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="27" t="s">
         <v>224</v>
       </c>
@@ -13769,14 +13847,17 @@
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29254433.680000003</v>
+        <v>29259778.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116960804.72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>116955459.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="27" t="s">
         <v>225</v>
       </c>
@@ -13791,14 +13872,17 @@
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5636126.1600000001</v>
+        <v>5639016.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22471214.640000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>22468324.640000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="27" t="s">
         <v>226</v>
       </c>
@@ -13813,14 +13897,17 @@
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8921770.6400000006</v>
+        <v>8906848.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35612072.560000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>35626994.560000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="27" t="s">
         <v>227</v>
       </c>
@@ -13835,14 +13922,17 @@
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12195320.119999997</v>
+        <v>12213080.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48765025.479999989</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>48747265.479999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="27" t="s">
         <v>228</v>
       </c>
@@ -13857,14 +13947,17 @@
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15496842.600000001</v>
+        <v>15489614.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61890005.399999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>61897233.399999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="27" t="s">
         <v>229</v>
       </c>
@@ -13879,14 +13972,17 @@
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18771455.079999998</v>
+        <v>18774314.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75041895.319999993</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>75039036.319999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="27" t="s">
         <v>230</v>
       </c>
@@ -13901,14 +13997,17 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22066713.560000002</v>
+        <v>22060501.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88173139.239999995</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>88179351.239999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="27" t="s">
         <v>231</v>
       </c>
@@ -13923,14 +14022,17 @@
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25336752.040000003</v>
+        <v>25339221.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101329603.16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>101327134.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="27" t="s">
         <v>232</v>
       </c>
@@ -13945,14 +14047,17 @@
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28628522.52</v>
+        <v>28631596.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114464335.08</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>114461261.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="27" t="s">
         <v>233</v>
       </c>
@@ -13967,14 +14072,17 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5312323.2</v>
+        <v>5302624.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21136252.800000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>21145951.800000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="27" t="s">
         <v>234</v>
       </c>
@@ -13989,14 +14097,17 @@
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8549444.6799999997</v>
+        <v>8546482.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34177793.719999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>34180755.719999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="27" t="s">
         <v>235</v>
       </c>
@@ -14011,14 +14122,17 @@
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11540648.16</v>
+        <v>11537260.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46134692.640000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+        <v>46138080.640000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="27" t="s">
         <v>236</v>
       </c>
@@ -14033,11 +14147,11 @@
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14836780.640000001</v>
+        <v>14843603.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59265062.560000002</v>
+        <v>59258239.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14047,10 +14161,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:F41"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14062,7 +14176,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
@@ -14079,7 +14196,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="30" t="s">
         <v>48</v>
       </c>
@@ -14094,7 +14214,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="30" t="s">
         <v>51</v>
       </c>
@@ -14111,7 +14234,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="30" t="s">
         <v>52</v>
       </c>

--- a/Sample_Bank_Data/JUN 2023.xlsx
+++ b/Sample_Bank_Data/JUN 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{25DD262F-A2BD-41E3-91F5-EDB06BBEBF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CB35655-3320-47C7-99A2-ACC57C5F8B59}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{25DD262F-A2BD-41E3-91F5-EDB06BBEBF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2329D37-B522-4ACC-A139-25FDB5EB6323}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -3242,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A35"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8389,7 +8389,7 @@
   <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13192,7 +13192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:A69"/>
     </sheetView>
   </sheetViews>
@@ -13247,11 +13247,11 @@
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8107244.6000000006</v>
+        <v>8108917.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32319603.399999999</v>
+        <v>32317930.399999999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13272,11 +13272,11 @@
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10790914.08</v>
+        <v>10787706.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43105636.32</v>
+        <v>43108844.32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
@@ -13297,11 +13297,11 @@
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13486187.560000001</v>
+        <v>13483010.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53880065.239999995</v>
+        <v>53883242.239999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -13322,11 +13322,11 @@
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18879978.520000003</v>
+        <v>18877633.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75425679.080000013</v>
+        <v>75428024.080000013</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
@@ -13347,11 +13347,11 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21571622.200000003</v>
+        <v>21567462.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86188953.799999997</v>
+        <v>86193113.799999997</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13372,11 +13372,11 @@
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24237872.680000003</v>
+        <v>24229419.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96844565.719999999</v>
+        <v>96853018.719999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -13397,11 +13397,11 @@
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29315423.640000001</v>
+        <v>29324114.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117228019.55999999</v>
+        <v>117219328.55999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13422,11 +13422,11 @@
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3329412.12</v>
+        <v>3336182.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13278933.48</v>
+        <v>13272163.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -13447,11 +13447,11 @@
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6607448.6000000006</v>
+        <v>6611760.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26427399.399999999</v>
+        <v>26423087.399999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
@@ -13472,11 +13472,11 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9910274.0800000001</v>
+        <v>9904760.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39551076.32</v>
+        <v>39556590.32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -13497,11 +13497,11 @@
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13198602.560000001</v>
+        <v>13201077.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52689250.239999995</v>
+        <v>52686775.239999995</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13522,11 +13522,11 @@
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16475208.039999999</v>
+        <v>16478975.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65839147.159999989</v>
+        <v>65835380.159999989</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -13547,11 +13547,11 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19769933.520000003</v>
+        <v>19763869.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78970924.080000013</v>
+        <v>78976988.080000013</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
@@ -13572,11 +13572,11 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23038772.200000003</v>
+        <v>23037597.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92113803.799999997</v>
+        <v>92114978.799999997</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -13597,11 +13597,11 @@
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26304056.680000003</v>
+        <v>26310671.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105127181.72</v>
+        <v>105120566.72</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
@@ -13622,11 +13622,11 @@
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29283387.160000004</v>
+        <v>29286720.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117095953.64000002</v>
+        <v>117092620.64000002</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -13647,11 +13647,11 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3013783.64</v>
+        <v>3013078.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11952059.559999999</v>
+        <v>11952764.559999999</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13672,11 +13672,11 @@
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6288710.120000001</v>
+        <v>6291458.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25103635.48</v>
+        <v>25100887.48</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -13697,11 +13697,11 @@
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9579598.5999999996</v>
+        <v>9575164.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38239249.399999999</v>
+        <v>38243683.399999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1">
@@ -13722,11 +13722,11 @@
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12849378.08</v>
+        <v>12872326.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51395972.32</v>
+        <v>51373024.32</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -13747,11 +13747,11 @@
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16150228.560000001</v>
+        <v>16142717.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64521624.239999995</v>
+        <v>64529135.239999995</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
@@ -13772,11 +13772,11 @@
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19426208.039999999</v>
+        <v>19435424.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77672147.159999996</v>
+        <v>77662931.159999996</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -13797,11 +13797,11 @@
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22722286.52</v>
+        <v>22711188.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90802571.079999998</v>
+        <v>90813669.079999998</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -13822,11 +13822,11 @@
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25999318.200000003</v>
+        <v>25998605.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103937257.8</v>
+        <v>103937970.8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
@@ -13847,11 +13847,11 @@
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29259778.680000003</v>
+        <v>29255038.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116955459.72</v>
+        <v>116960199.72</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -13872,11 +13872,11 @@
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5639016.1600000001</v>
+        <v>5630771.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22468324.640000001</v>
+        <v>22476569.640000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -13897,11 +13897,11 @@
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8906848.6400000006</v>
+        <v>8927576.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35626994.560000002</v>
+        <v>35606266.560000002</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
@@ -13922,11 +13922,11 @@
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12213080.119999997</v>
+        <v>12202334.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48747265.479999989</v>
+        <v>48758011.479999989</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -13947,11 +13947,11 @@
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15489614.600000001</v>
+        <v>15482320.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61897233.399999999</v>
+        <v>61904527.399999999</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -13972,11 +13972,11 @@
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18774314.079999998</v>
+        <v>18781986.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75039036.319999993</v>
+        <v>75031364.319999993</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
@@ -13997,11 +13997,11 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22060501.560000002</v>
+        <v>22070916.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88179351.239999995</v>
+        <v>88168936.239999995</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -14022,11 +14022,11 @@
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25339221.040000003</v>
+        <v>25337324.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101327134.16</v>
+        <v>101329031.16</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -14047,11 +14047,11 @@
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28631596.52</v>
+        <v>28619268.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114461261.08</v>
+        <v>114473589.08</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
@@ -14072,11 +14072,11 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5302624.2</v>
+        <v>5302606.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21145951.800000001</v>
+        <v>21145969.800000001</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -14097,11 +14097,11 @@
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8546482.6799999997</v>
+        <v>8569156.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34180755.719999999</v>
+        <v>34158081.719999999</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -14122,11 +14122,11 @@
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11537260.16</v>
+        <v>11552350.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46138080.640000001</v>
+        <v>46122990.640000001</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -14147,11 +14147,11 @@
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14843603.640000001</v>
+        <v>14825814.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59258239.560000002</v>
+        <v>59276028.560000002</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Bank_Data/JUN 2023.xlsx
+++ b/Sample_Bank_Data/JUN 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{25DD262F-A2BD-41E3-91F5-EDB06BBEBF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61DE8D77-DF1A-48E8-AE26-B769403276EF}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{25DD262F-A2BD-41E3-91F5-EDB06BBEBF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2329D37-B522-4ACC-A139-25FDB5EB6323}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="307">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -469,9 +463,6 @@
     <t>Building4</t>
   </si>
   <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
-  </si>
-  <si>
     <t>75%</t>
   </si>
   <si>
@@ -520,370 +511,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Provision Stages</t>
@@ -1944,21 +1680,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1972,7 +1708,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1986,7 +1722,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2000,7 +1736,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2014,7 +1750,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2028,7 +1764,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2042,7 +1778,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2056,7 +1792,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2070,7 +1806,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2084,7 +1820,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2098,7 +1834,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2112,7 +1848,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2126,7 +1862,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2140,7 +1876,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2154,7 +1890,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2168,7 +1904,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2182,7 +1918,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2196,7 +1932,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2210,7 +1946,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2224,7 +1960,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2238,7 +1974,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -2275,22 +2011,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3506,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8652,8 +8388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8704,7 +8440,7 @@
         <v>6340637</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8713,10 +8449,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8736,7 +8472,7 @@
         <v>6340637</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8745,10 +8481,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8777,10 +8513,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8800,7 +8536,7 @@
         <v>12479201</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8809,10 +8545,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8832,7 +8568,7 @@
         <v>12479201</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8841,10 +8577,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8864,7 +8600,7 @@
         <v>49388838</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8873,10 +8609,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8896,7 +8632,7 @@
         <v>49388838</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8905,10 +8641,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8937,10 +8673,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8960,7 +8696,7 @@
         <v>49404412</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -8969,10 +8705,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -8992,7 +8728,7 @@
         <v>49404412</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -9001,10 +8737,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -9024,7 +8760,7 @@
         <v>11745240</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -9033,10 +8769,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -9056,7 +8792,7 @@
         <v>11745240</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -9065,10 +8801,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -9088,7 +8824,7 @@
         <v>38279788</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -9097,10 +8833,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -9120,7 +8856,7 @@
         <v>38279788</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -9129,10 +8865,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -9161,10 +8897,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -9184,7 +8920,7 @@
         <v>28407308</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -9193,10 +8929,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -9216,7 +8952,7 @@
         <v>28407308</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -9225,10 +8961,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -9248,7 +8984,7 @@
         <v>43828298.5</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -9257,10 +8993,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9280,7 +9016,7 @@
         <v>43828298.5</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9289,10 +9025,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9312,7 +9048,7 @@
         <v>27160143</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -9321,10 +9057,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9344,7 +9080,7 @@
         <v>27160143</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -9353,10 +9089,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9376,7 +9112,7 @@
         <v>11726308</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9385,10 +9121,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9408,7 +9144,7 @@
         <v>11726308</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9417,10 +9153,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9440,7 +9176,7 @@
         <v>33944746.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9449,10 +9185,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9472,7 +9208,7 @@
         <v>33944746.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9481,10 +9217,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9504,7 +9240,7 @@
         <v>16063255.5</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9513,10 +9249,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>156</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9536,7 +9272,7 @@
         <v>16063255.5</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9545,10 +9281,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9568,7 +9304,7 @@
         <v>38270331</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9577,10 +9313,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9600,7 +9336,7 @@
         <v>38270331</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9609,10 +9345,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9641,10 +9377,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9664,7 +9400,7 @@
         <v>10549938</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9673,10 +9409,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9696,7 +9432,7 @@
         <v>10549938</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9705,10 +9441,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9728,7 +9464,7 @@
         <v>45076260.5</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9737,10 +9473,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9760,7 +9496,7 @@
         <v>45076260.5</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9769,10 +9505,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9801,10 +9537,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9824,7 +9560,7 @@
         <v>49377485.5</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9833,10 +9569,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9856,7 +9592,7 @@
         <v>49377485.5</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9865,10 +9601,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9897,10 +9633,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9920,7 +9656,7 @@
         <v>11739624.5</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9929,10 +9665,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9952,7 +9688,7 @@
         <v>11739624.5</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -9961,10 +9697,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9984,7 +9720,7 @@
         <v>32725763</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -9993,10 +9729,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10016,7 +9752,7 @@
         <v>32725763</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -10025,10 +9761,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10057,10 +9793,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10080,7 +9816,7 @@
         <v>39445537</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -10089,10 +9825,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10112,7 +9848,7 @@
         <v>39445537</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -10121,10 +9857,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10153,10 +9889,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10176,7 +9912,7 @@
         <v>22843871</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -10185,10 +9921,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10208,7 +9944,7 @@
         <v>22843871</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -10217,10 +9953,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10249,10 +9985,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10272,7 +10008,7 @@
         <v>6190778</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -10281,10 +10017,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10304,7 +10040,7 @@
         <v>6190778</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -10313,10 +10049,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>181</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10345,10 +10081,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>182</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10368,7 +10104,7 @@
         <v>6187858.5</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10377,10 +10113,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10400,7 +10136,7 @@
         <v>6187858.5</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10409,10 +10145,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10441,10 +10177,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10464,7 +10200,7 @@
         <v>17279131.5</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10473,10 +10209,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10496,7 +10232,7 @@
         <v>17279131.5</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10505,10 +10241,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>187</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10537,10 +10273,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10560,7 +10296,7 @@
         <v>38277955.5</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10569,10 +10305,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10592,7 +10328,7 @@
         <v>38277955.5</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10601,10 +10337,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>190</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10633,10 +10369,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10656,7 +10392,7 @@
         <v>6179930.5</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10665,10 +10401,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10688,7 +10424,7 @@
         <v>6179930.5</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10697,10 +10433,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10729,10 +10465,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10752,7 +10488,7 @@
         <v>32723389.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10761,10 +10497,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10784,7 +10520,7 @@
         <v>32723389.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10793,10 +10529,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10825,10 +10561,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10848,7 +10584,7 @@
         <v>28408291.5</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10857,10 +10593,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10880,7 +10616,7 @@
         <v>28408291.5</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10889,10 +10625,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10912,7 +10648,7 @@
         <v>39456630</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10921,10 +10657,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10944,7 +10680,7 @@
         <v>39456630</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -10953,10 +10689,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10985,10 +10721,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11017,10 +10753,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11049,10 +10785,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11072,7 +10808,7 @@
         <v>38267186</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -11081,10 +10817,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11104,7 +10840,7 @@
         <v>38267186</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -11113,10 +10849,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11136,7 +10872,7 @@
         <v>43840636.5</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -11145,10 +10881,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11168,7 +10904,7 @@
         <v>43840636.5</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -11177,10 +10913,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11209,10 +10945,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11232,7 +10968,7 @@
         <v>22843003</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -11241,10 +10977,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11264,7 +11000,7 @@
         <v>22843003</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -11273,10 +11009,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11296,7 +11032,7 @@
         <v>11741906.5</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -11305,10 +11041,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11328,7 +11064,7 @@
         <v>11741906.5</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -11337,10 +11073,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11369,10 +11105,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11401,10 +11137,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11424,7 +11160,7 @@
         <v>28401086</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11433,10 +11169,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11456,7 +11192,7 @@
         <v>28401086</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11465,10 +11201,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11488,7 +11224,7 @@
         <v>33941397</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11497,10 +11233,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>218</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11520,7 +11256,7 @@
         <v>33941397</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11529,10 +11265,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11561,10 +11297,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11584,7 +11320,7 @@
         <v>5480766</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11593,10 +11329,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11616,7 +11352,7 @@
         <v>5480766</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11625,10 +11361,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11648,7 +11384,7 @@
         <v>5499377</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11657,10 +11393,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11680,7 +11416,7 @@
         <v>5499377</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11689,10 +11425,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11721,10 +11457,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11744,7 +11480,7 @@
         <v>43825877</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11753,10 +11489,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11776,7 +11512,7 @@
         <v>43825877</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11785,10 +11521,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11817,10 +11553,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11840,7 +11576,7 @@
         <v>11725927</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11849,10 +11585,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11872,7 +11608,7 @@
         <v>11725927</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11881,10 +11617,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11913,10 +11649,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>231</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11936,7 +11672,7 @@
         <v>49386791</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -11945,10 +11681,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11968,7 +11704,7 @@
         <v>49386791</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -11977,10 +11713,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12000,7 +11736,7 @@
         <v>11747672</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -12009,10 +11745,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12032,7 +11768,7 @@
         <v>11747672</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -12041,10 +11777,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12073,10 +11809,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12096,7 +11832,7 @@
         <v>6172307.5</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -12105,10 +11841,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12128,7 +11864,7 @@
         <v>6172307.5</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -12137,10 +11873,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12160,7 +11896,7 @@
         <v>17273118</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -12169,10 +11905,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12192,7 +11928,7 @@
         <v>17273118</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -12201,10 +11937,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12224,7 +11960,7 @@
         <v>32713900</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -12233,10 +11969,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12256,7 +11992,7 @@
         <v>32713900</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -12265,10 +12001,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>242</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12297,10 +12033,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12320,7 +12056,7 @@
         <v>38275266.5</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -12329,10 +12065,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12352,7 +12088,7 @@
         <v>38275266.5</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12361,10 +12097,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12384,7 +12120,7 @@
         <v>49394213.5</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12393,10 +12129,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12416,7 +12152,7 @@
         <v>49394213.5</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12425,10 +12161,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12448,7 +12184,7 @@
         <v>22839390.5</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12457,10 +12193,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12480,7 +12216,7 @@
         <v>22839390.5</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12489,10 +12225,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>249</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12512,7 +12248,7 @@
         <v>22841854.5</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12521,10 +12257,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12544,7 +12280,7 @@
         <v>22841854.5</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12553,10 +12289,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12576,7 +12312,7 @@
         <v>11735615</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12585,10 +12321,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12608,7 +12344,7 @@
         <v>11735615</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12617,10 +12353,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12640,7 +12376,7 @@
         <v>32708004.5</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12649,10 +12385,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12672,7 +12408,7 @@
         <v>32708004.5</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12681,10 +12417,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12713,10 +12449,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12736,7 +12472,7 @@
         <v>28383696</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12745,10 +12481,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12768,7 +12504,7 @@
         <v>28383696</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12777,10 +12513,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12800,7 +12536,7 @@
         <v>17271245</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12809,10 +12545,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12832,7 +12568,7 @@
         <v>17271245</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12841,10 +12577,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12864,7 +12600,7 @@
         <v>27153559.5</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12873,10 +12609,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12896,7 +12632,7 @@
         <v>27153559.5</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12905,10 +12641,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12937,10 +12673,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12960,7 +12696,7 @@
         <v>33946848</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -12969,10 +12705,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12992,7 +12728,7 @@
         <v>33946848</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -13001,10 +12737,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13033,10 +12769,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13056,7 +12792,7 @@
         <v>21598596.5</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -13065,10 +12801,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13088,7 +12824,7 @@
         <v>21598596.5</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -13097,10 +12833,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13120,7 +12856,7 @@
         <v>32718827.5</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -13129,10 +12865,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13152,7 +12888,7 @@
         <v>32718827.5</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -13161,10 +12897,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13184,7 +12920,7 @@
         <v>39457291</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -13193,10 +12929,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13216,7 +12952,7 @@
         <v>39457291</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -13225,10 +12961,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13257,10 +12993,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13280,7 +13016,7 @@
         <v>16053856</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13289,10 +13025,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13312,7 +13048,7 @@
         <v>16053856</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -13321,10 +13057,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13344,7 +13080,7 @@
         <v>27149977.5</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -13353,10 +13089,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>276</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13376,7 +13112,7 @@
         <v>27149977.5</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13385,10 +13121,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13414,7 +13150,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13444,7 +13180,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -13454,10 +13190,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:G39"/>
+  <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13470,29 +13206,35 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="24" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="27" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="C3" s="28">
         <v>40426848</v>
@@ -13501,20 +13243,23 @@
         <v>2023</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8087933.6000000006</v>
+        <v>8108917.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32338914.399999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>32317930.399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="27" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="C4" s="28">
         <v>53896550.399999999</v>
@@ -13523,20 +13268,23 @@
         <v>2022</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10799954.08</v>
+        <v>10787706.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43096596.32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1">
+        <v>43108844.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="27" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="C5" s="28">
         <v>67366252.799999997</v>
@@ -13545,20 +13293,23 @@
         <v>2019</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13495294.560000001</v>
+        <v>13483010.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53870958.239999995</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>53883242.239999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="27" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="C6" s="28">
         <v>94305657.600000009</v>
@@ -13567,20 +13318,23 @@
         <v>2023</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18863487.520000003</v>
+        <v>18877633.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75442170.080000013</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>75428024.080000013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="27" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C7" s="28">
         <v>107760576</v>
@@ -13589,20 +13343,23 @@
         <v>2022</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21573115.200000003</v>
+        <v>21567462.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86187460.799999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>86193113.799999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="27" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="C8" s="28">
         <v>121082438.40000001</v>
@@ -13611,20 +13368,23 @@
         <v>2019</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24230587.680000003</v>
+        <v>24229419.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96851850.719999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>96853018.719999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="27" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="C9" s="28">
         <v>146543443.19999999</v>
@@ -13633,20 +13393,23 @@
         <v>2023</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29317885.640000001</v>
+        <v>29324114.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117225557.55999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>117219328.55999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="27" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="C10" s="28">
         <v>16608345.6</v>
@@ -13655,20 +13418,23 @@
         <v>2022</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3339509.12</v>
+        <v>3336182.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13268836.48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>13272163.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="27" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="C11" s="28">
         <v>33034848</v>
@@ -13677,20 +13443,23 @@
         <v>2019</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6622583.6000000006</v>
+        <v>6611760.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26412264.399999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1">
+        <v>26423087.399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="27" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C12" s="28">
         <v>49461350.399999999</v>
@@ -13699,20 +13468,23 @@
         <v>2020</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9912310.0800000001</v>
+        <v>9904760.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39549040.32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>39556590.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="C13" s="28">
         <v>65887852.799999997</v>
@@ -13721,20 +13493,23 @@
         <v>2020</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13193730.560000001</v>
+        <v>13201077.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52694122.239999995</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>52686775.239999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="27" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="C14" s="28">
         <v>82314355.199999988</v>
@@ -13743,20 +13518,23 @@
         <v>2020</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16467238.039999999</v>
+        <v>16478975.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65847117.159999989</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+        <v>65835380.159999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="27" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="C15" s="28">
         <v>98740857.600000009</v>
@@ -13765,20 +13543,23 @@
         <v>2020</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19770647.520000003</v>
+        <v>19763869.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78970210.080000013</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1">
+        <v>78976988.080000013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="27" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C16" s="28">
         <v>115152576</v>
@@ -13787,20 +13568,23 @@
         <v>2020</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23049984.200000003</v>
+        <v>23037597.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92102591.799999997</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>92114978.799999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="27" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="C17" s="28">
         <v>131431238.40000001</v>
@@ -13809,20 +13593,23 @@
         <v>2020</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26294207.680000003</v>
+        <v>26310671.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105137030.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+        <v>105120566.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="27" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="C18" s="28">
         <v>146379340.80000001</v>
@@ -13831,20 +13618,23 @@
         <v>2017</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29286233.160000004</v>
+        <v>29286720.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117093107.64000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>117092620.64000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="27" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="C19" s="28">
         <v>14965843.199999999</v>
@@ -13853,20 +13643,23 @@
         <v>2017</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3002176.64</v>
+        <v>3013078.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11963666.559999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>11952764.559999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="27" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="C20" s="28">
         <v>31392345.600000001</v>
@@ -13875,20 +13668,23 @@
         <v>2017</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6301235.120000001</v>
+        <v>6291458.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25091110.48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+        <v>25100887.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="27" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="C21" s="28">
         <v>47818848</v>
@@ -13897,20 +13693,23 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9572054.5999999996</v>
+        <v>9575164.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38246793.399999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+        <v>38243683.399999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="27" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="C22" s="28">
         <v>64245350.399999999</v>
@@ -13919,20 +13718,23 @@
         <v>2017</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12867931.08</v>
+        <v>12872326.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51377419.32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>51373024.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="C23" s="28">
         <v>80671852.799999997</v>
@@ -13941,20 +13743,23 @@
         <v>2017</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16154967.560000001</v>
+        <v>16142717.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64516885.239999995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+        <v>64529135.239999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="27" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="C24" s="28">
         <v>97098355.199999988</v>
@@ -13963,20 +13768,23 @@
         <v>2017</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19439923.039999999</v>
+        <v>19435424.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77658432.159999996</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>77662931.159999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="27" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="C25" s="28">
         <v>113524857.59999999</v>
@@ -13985,20 +13793,23 @@
         <v>2015</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22725416.52</v>
+        <v>22711188.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90799441.079999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>90813669.079999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="27" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="C26" s="28">
         <v>129936576</v>
@@ -14007,20 +13818,23 @@
         <v>2015</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26006657.200000003</v>
+        <v>25998605.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103929918.8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>103937970.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="27" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="C27" s="28">
         <v>146215238.40000001</v>
@@ -14029,20 +13843,23 @@
         <v>2015</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29261907.680000003</v>
+        <v>29255038.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116953330.72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>116960199.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="27" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="C28" s="28">
         <v>28107340.800000001</v>
@@ -14051,20 +13868,23 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5637757.1600000001</v>
+        <v>5630771.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22469583.640000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>22476569.640000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="27" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="C29" s="28">
         <v>44533843.200000003</v>
@@ -14073,20 +13893,23 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8907937.6400000006</v>
+        <v>8927576.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35625905.560000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>35606266.560000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="27" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="C30" s="28">
         <v>60960345.599999987</v>
@@ -14095,20 +13918,23 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12198589.119999997</v>
+        <v>12202334.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48761756.479999989</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>48758011.479999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="27" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="C31" s="28">
         <v>77386848</v>
@@ -14117,20 +13943,23 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15497461.600000001</v>
+        <v>15482320.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61889386.399999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>61904527.399999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="27" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="C32" s="28">
         <v>93813350.399999991</v>
@@ -14139,20 +13968,23 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18786359.079999998</v>
+        <v>18781986.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75026991.319999993</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>75031364.319999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="27" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="C33" s="28">
         <v>110239852.8</v>
@@ -14161,20 +13993,23 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22063580.560000002</v>
+        <v>22070916.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88176272.239999995</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>88168936.239999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="27" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="C34" s="28">
         <v>126666355.2</v>
@@ -14183,20 +14018,23 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25337093.040000003</v>
+        <v>25337324.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101329262.16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>101329031.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="27" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C35" s="28">
         <v>143092857.59999999</v>
@@ -14205,20 +14043,23 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28624136.52</v>
+        <v>28619268.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114468721.08</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>114473589.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="27" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C36" s="28">
         <v>26448576</v>
@@ -14227,20 +14068,23 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5298080.2</v>
+        <v>5302606.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21150495.800000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>21145969.800000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="27" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="C37" s="28">
         <v>42727238.399999999</v>
@@ -14249,20 +14093,23 @@
         <v>2015</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8551390.6799999997</v>
+        <v>8569156.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34175847.719999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>34158081.719999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="C38" s="28">
         <v>57675340.799999997</v>
@@ -14271,20 +14118,23 @@
         <v>2015</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11546910.16</v>
+        <v>11552350.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46128430.640000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+        <v>46122990.640000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="27" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="C39" s="28">
         <v>74101843.200000003</v>
@@ -14293,15 +14143,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14833055.640000001</v>
+        <v>14825814.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59268787.560000002</v>
+        <v>59276028.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14311,10 +14161,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:F41"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14326,7 +14176,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
@@ -14337,13 +14190,16 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="30" t="s">
         <v>48</v>
       </c>
@@ -14352,13 +14208,16 @@
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="30" t="s">
         <v>51</v>
       </c>
@@ -14369,13 +14228,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="30" t="s">
         <v>52</v>
       </c>
@@ -14384,15 +14246,15 @@
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="30" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="C40" s="30">
         <v>6</v>
@@ -14410,7 +14272,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="30" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="C41" s="30">
         <v>7</v>
@@ -14468,13 +14330,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14482,7 +14344,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14494,10 +14356,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H2" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14519,10 +14381,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14543,10 +14405,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="H4" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14567,10 +14429,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H5" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14591,10 +14453,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="H6" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14616,10 +14478,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="H7" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14641,10 +14503,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14666,10 +14528,10 @@
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H9" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14691,10 +14553,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H10" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14716,10 +14578,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="H11" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14741,7 +14603,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14763,10 +14625,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H13" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14788,7 +14650,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14811,7 +14673,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14833,7 +14695,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14855,10 +14717,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H17" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14880,7 +14742,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14902,7 +14764,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14924,7 +14786,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14947,7 +14809,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14969,7 +14831,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14991,7 +14853,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15013,7 +14875,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15035,7 +14897,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15057,7 +14919,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15079,7 +14941,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15101,10 +14963,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H28" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15126,10 +14988,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H29" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15151,7 +15013,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15173,7 +15035,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15196,7 +15058,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15218,10 +15080,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H33" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15243,10 +15105,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H34" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15268,10 +15130,10 @@
         <v>16</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H35" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15293,10 +15155,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H36" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15318,7 +15180,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15340,7 +15202,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15362,7 +15224,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15384,10 +15246,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H40" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15409,10 +15271,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H41" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15434,7 +15296,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15456,7 +15318,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15478,7 +15340,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15500,7 +15362,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15522,7 +15384,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15544,7 +15406,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15566,7 +15428,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15588,7 +15450,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15610,7 +15472,7 @@
         <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15632,7 +15494,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -15652,30 +15514,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -15686,13 +15548,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -15703,13 +15565,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -15720,13 +15582,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -15737,13 +15599,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -15754,13 +15616,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -15771,13 +15633,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -15788,13 +15650,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -15805,13 +15667,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -15822,13 +15684,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -15839,13 +15701,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="C12" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -15856,13 +15718,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -15873,13 +15735,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -15890,13 +15752,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="C15" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -15907,13 +15769,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="B16" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -15924,13 +15786,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="C17" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -15941,13 +15803,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="C18" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -15958,13 +15820,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="B19" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="C19" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -15975,13 +15837,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -15992,13 +15854,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -16009,7 +15871,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -16020,13 +15882,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="C23" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -16034,10 +15896,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -16045,7 +15907,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="D25">
         <v>1</v>
